--- a/biology/Zoologie/Anisota/Anisota.xlsx
+++ b/biology/Zoologie/Anisota/Anisota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anisota est un genre de lépidoptères (papillons) appartenant à la famille des Saturniidae et à la sous-famille des Ceratocampinae dont toutes les espèces résident en Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon funet[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon funet :
 Anisota assimilis (Druce, 1886)
 Anisota consularis Dyar, 1896
 Anisota dissimilis (Boisduval, 1872)
@@ -527,7 +541,7 @@
 Anisota senatoria (Smith, 1797)
 Anisota stigma (Fabricius, 1775)
 Anisota virginiensis (Drury, 1773)
-Selon Catalogue of Life[2] :
+Selon Catalogue of Life :
 Anisota assimilis
 Anisota astynome
 Anisota consularis
@@ -575,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adelocephala Duponchel, 1841
 Adelocampa Packard, 1905</t>
